--- a/biology/Médecine/Antéhypophyse/Antéhypophyse.xlsx
+++ b/biology/Médecine/Antéhypophyse/Antéhypophyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ant%C3%A9hypophyse</t>
+          <t>Antéhypophyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antéhypophyse (ou adénohypophyse ou hypophyse antérieure) est le lobe antérieur de l'hypophyse et fait partie de l'appareil endocrinien.
 Sous l'influence de l'hypothalamus, l'antéhypophyse produit et sécrète diverses hormones peptidiques qui régulent divers processus physiologiques, tels le stress, la croissance et la reproduction.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ant%C3%A9hypophyse</t>
+          <t>Antéhypophyse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Anatomie et développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antéhypophyse est une glande qui représente moins de 1 % de la masse de l'encéphale, elle a le même volume qu'une petite bille et est située dans l'axe central du cerveau. Elle se situe en avant de la neurohypophyse (ou posthypophyse ou hypophyse postérieure) et dans le prolongement de l'hypothalamus.
 Elle est par ailleurs irriguée par l'artère hypophysaire, et secrète ses hormones dans la veine hypophysaire.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ant%C3%A9hypophyse</t>
+          <t>Antéhypophyse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Histologie et physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq types cellulaires se distinguent selon l'hormone qu'elles produisent, et d'un point de vue histologique par leurs caractères tinctoriaux (basophile, acidophile) et leurs granulations (plus ou moins épaisses).
 Cellules basophiles :
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ant%C3%A9hypophyse</t>
+          <t>Antéhypophyse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,6 +604,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
